--- a/EMIcalculator/src/test/resources/Excel/LoanData.xlsx
+++ b/EMIcalculator/src/test/resources/Excel/LoanData.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{107773FE-45B8-46A5-9928-66D0507D0A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish\git\emi-calculator\EMIcalculator\src\test\resources\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731972CC-13A9-438F-9B28-EC2CF122ACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20760" windowHeight="13224" xr2:uid="{3EE6E2B4-1635-46E4-9C89-DC6A0101F474}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3EE6E2B4-1635-46E4-9C89-DC6A0101F474}"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -390,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BFE401-1CA6-4A07-9F4A-88370BB6BFB1}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,6 +423,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100000</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
